--- a/Test_in_vscode.xlsx
+++ b/Test_in_vscode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amark/Documents/GitHub/SheetFormatter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372D2E9C-40AA-BF48-8B42-CFBBF2D4C8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3EB0BF-DB8A-274A-A68C-7A34831BE184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,43 +58,43 @@
     <t>Company Count</t>
   </si>
   <si>
-    <t>Amar</t>
+    <t>Mohid</t>
+  </si>
+  <si>
+    <t>Saeed</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Verified</t>
+  </si>
+  <si>
+    <t>Raina</t>
+  </si>
+  <si>
+    <t>Burditt</t>
+  </si>
+  <si>
+    <t>MUS</t>
+  </si>
+  <si>
+    <t>Saatvik</t>
+  </si>
+  <si>
+    <t>Mohan</t>
+  </si>
+  <si>
+    <t>lyne.ai</t>
+  </si>
+  <si>
+    <t>Unavailable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amar </t>
   </si>
   <si>
     <t>Kanakamedala</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Unavailable</t>
-  </si>
-  <si>
-    <t>Mohid</t>
-  </si>
-  <si>
-    <t>Saeed</t>
-  </si>
-  <si>
-    <t>Verified</t>
-  </si>
-  <si>
-    <t>Raina</t>
-  </si>
-  <si>
-    <t>Burditt</t>
-  </si>
-  <si>
-    <t>MUS</t>
-  </si>
-  <si>
-    <t>Saatvik</t>
-  </si>
-  <si>
-    <t>Mohan</t>
-  </si>
-  <si>
-    <t>lyne.ai</t>
   </si>
 </sst>
 </file>
@@ -119,7 +119,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -147,8 +147,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -452,175 +452,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Test_in_vscode.xlsx
+++ b/Test_in_vscode.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amark/Documents/GitHub/SheetFormatter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3EB0BF-DB8A-274A-A68C-7A34831BE184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEE5B73-1B4D-794C-89EF-86141F3C489B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Leads" sheetId="1" r:id="rId1"/>
+    <sheet name="Linkedin Only" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>First Name</t>
   </si>
@@ -79,19 +80,28 @@
     <t>MUS</t>
   </si>
   <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Person2</t>
+  </si>
+  <si>
     <t>Saatvik</t>
   </si>
   <si>
     <t>Mohan</t>
   </si>
   <si>
-    <t>lyne.ai</t>
+    <t>Lyne.AI</t>
   </si>
   <si>
     <t>Unavailable</t>
   </si>
   <si>
-    <t xml:space="preserve">Amar </t>
+    <t>Amar</t>
   </si>
   <si>
     <t>Kanakamedala</t>
@@ -101,7 +111,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +132,10 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,8 +161,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -454,161 +468,237 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2"/>
+      <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
+      <c r="E3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" display="http://lyne.ai/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>